--- a/wyniki_temp.xlsx
+++ b/wyniki_temp.xlsx
@@ -34,16 +34,16 @@
     <t>Dodatkowe punkty dla drugiej drużyny</t>
   </si>
   <si>
-    <t>Czy uważasz, że wojny są czasem konieczne?</t>
-  </si>
-  <si>
-    <t>Na ile ważna jest dla Ciebie wolność wyboru stylu życia?</t>
-  </si>
-  <si>
-    <t>Jak bardzo zgadzasz się z tym, że zwierzęta mają takie same prawa do życia jak ludzie?</t>
-  </si>
-  <si>
-    <t>Czy uważasz, że bogatsi powinni płacić wyższe podatki?</t>
+    <t>Jak często zdarzało Ci się rozrabiać w szkole?</t>
+  </si>
+  <si>
+    <t>Jak często miałeś ochotę na psoty i zabawy bez kontroli?</t>
+  </si>
+  <si>
+    <t>Jak bardzo lubiłeś szkolne przerwy?</t>
+  </si>
+  <si>
+    <t>Wolisz mieć stały plan dnia czy działać spontanicznie?</t>
   </si>
   <si>
     <t>Niebiescy</t>
@@ -52,16 +52,16 @@
     <t>Czerwoni</t>
   </si>
   <si>
+    <t>Dawid</t>
+  </si>
+  <si>
     <t>Patrycja</t>
   </si>
   <si>
-    <t>gracz3</t>
-  </si>
-  <si>
-    <t>Dawid</t>
-  </si>
-  <si>
-    <t>WIX</t>
+    <t>Wiktoria</t>
+  </si>
+  <si>
+    <t>Antek</t>
   </si>
 </sst>
 </file>
@@ -459,10 +459,10 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -519,7 +519,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>

--- a/wyniki_temp.xlsx
+++ b/wyniki_temp.xlsx
@@ -34,16 +34,16 @@
     <t>Dodatkowe punkty dla drugiej drużyny</t>
   </si>
   <si>
-    <t>Jak często zdarzało Ci się rozrabiać w szkole?</t>
-  </si>
-  <si>
-    <t>Jak często miałeś ochotę na psoty i zabawy bez kontroli?</t>
-  </si>
-  <si>
-    <t>Jak bardzo lubiłeś szkolne przerwy?</t>
-  </si>
-  <si>
-    <t>Wolisz mieć stały plan dnia czy działać spontanicznie?</t>
+    <t>Wolisz być kierowcą czy pasażerem?</t>
+  </si>
+  <si>
+    <t>Jak bardzo lubiłeś czytać książki jako dziecko?</t>
+  </si>
+  <si>
+    <t>Wolisz jeść fast food czy domowe posiłki?</t>
+  </si>
+  <si>
+    <t>Wolisz słuchać muzyki klasycznej czy rockowej?</t>
   </si>
   <si>
     <t>Niebiescy</t>
@@ -459,7 +459,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -479,7 +479,7 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -519,7 +519,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
